--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Hubspot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E4C20-6372-4373-9935-264954AA46AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C41C6E-E991-47CD-9C63-5507B7416D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1590,54 +1590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1649,6 +1601,54 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2889,8 +2889,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:EA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,27 +2940,27 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="1:131" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:131" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
@@ -3378,30 +3378,30 @@
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
       <c r="J19" s="63"/>
-      <c r="K19" s="105" t="s">
+      <c r="K19" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
       <c r="N19" s="63"/>
-      <c r="O19" s="108" t="s">
+      <c r="O19" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="110"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
       <c r="R19" s="64"/>
       <c r="S19" s="38"/>
       <c r="U19" s="39"/>
@@ -3409,7 +3409,7 @@
       <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="101" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="65" t="s">
@@ -3667,7 +3667,7 @@
       <c r="Q32" s="94"/>
     </row>
     <row r="33" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="102" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="66" t="s">
@@ -3911,7 +3911,7 @@
       <c r="Q45" s="39"/>
     </row>
     <row r="46" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="105" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="40" t="s">
@@ -3954,11 +3954,11 @@
       <c r="A47" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="42"/>
       <c r="G47" s="53"/>
       <c r="H47" s="54"/>
@@ -3974,11 +3974,11 @@
       <c r="A48" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
       <c r="E48" s="44"/>
       <c r="G48" s="56"/>
       <c r="H48" s="57"/>
@@ -3994,11 +3994,11 @@
       <c r="A49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
       <c r="E49" s="44"/>
       <c r="G49" s="56"/>
       <c r="H49" s="57"/>
@@ -4014,11 +4014,11 @@
       <c r="A50" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="104"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="44"/>
       <c r="G50" s="56"/>
       <c r="H50" s="57"/>
@@ -4032,9 +4032,9 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="108"/>
       <c r="E51" s="44"/>
       <c r="G51" s="56"/>
       <c r="H51" s="57"/>
@@ -4048,9 +4048,9 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="104"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="44"/>
       <c r="G52" s="56"/>
       <c r="H52" s="57"/>
@@ -4064,9 +4064,9 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="104"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="108"/>
       <c r="E53" s="44"/>
       <c r="G53" s="56"/>
       <c r="H53" s="57"/>
@@ -4080,9 +4080,9 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="108"/>
       <c r="E54" s="44"/>
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
@@ -4096,9 +4096,9 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="104"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
       <c r="E55" s="44"/>
       <c r="G55" s="56"/>
       <c r="H55" s="57"/>
@@ -4112,9 +4112,9 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="104"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
       <c r="E56" s="44"/>
       <c r="G56" s="56"/>
       <c r="H56" s="57"/>
@@ -4128,9 +4128,9 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="113"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="111"/>
       <c r="E57" s="46"/>
       <c r="G57" s="59"/>
       <c r="H57" s="60"/>
@@ -4152,14 +4152,6 @@
     <protectedRange sqref="N21:N32 J21:J32 R21:R32 A34:R44 A21:F32" name="Questionnaire_3_1"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B54:D54"/>
@@ -4169,6 +4161,14 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:U10 A45:R45 Z45:AE45">
     <cfRule type="expression" dxfId="49" priority="69">
@@ -4370,15 +4370,12 @@
       <formula>$D45="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q47:Q57 I47:I57 I7:I17 Q7:Q17 M47:M57 M7:M17 Q21:Q32 M21:M32 I21:I32" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17 C34:D44 C21:D32" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q34:Q44 I34:I44 M34:M44" xr:uid="{56F05B6E-DAF7-4382-8858-3C889111C006}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 N12 M7:M17 Q7:Q17 I21:I32 I34:I44 I47:I57 M47:M57 Q47:Q57 Q34:Q44 Q21:Q32 M21:M31 M32 M34:M44" xr:uid="{D3BA4E53-0790-49A7-B436-E41A61FA68D3}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C41C6E-E991-47CD-9C63-5507B7416D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD1D4F-741B-4B88-8FAD-63EDE947B206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$47:$Q$57,Tabelle1!$I$47:$I$57,Tabelle1!$I$7:$I$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$C$17</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$17,Tabelle1!$P$47:$P$57,Tabelle1!$H$47:$H$57,Tabelle1!$H$7:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>snapADDY</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Straße</t>
-  </si>
-  <si>
-    <t>Pflichtfeld</t>
   </si>
   <si>
     <t>nicht benötigt</t>
@@ -379,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -451,21 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -498,21 +480,6 @@
         <color rgb="FF9DA600"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -596,19 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -751,8 +705,49 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
       <right/>
-      <top style="thick">
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -765,7 +760,7 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -780,7 +775,9 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
@@ -794,7 +791,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -803,82 +800,6 @@
       <left style="thin">
         <color rgb="FFFE6C36"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
@@ -1148,19 +1069,6 @@
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
         <color rgb="FF9DA600"/>
       </right>
       <top/>
@@ -1436,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1466,85 +1374,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1556,71 +1449,48 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1628,32 +1498,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -1684,7 +1563,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -1728,292 +1607,6 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
@@ -2060,94 +1653,6 @@
       <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2226,13 +1731,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
@@ -2304,13 +1809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
@@ -2375,13 +1880,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
@@ -2446,13 +1951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
@@ -2517,13 +2022,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>197826</xdr:rowOff>
@@ -2887,48 +2392,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:EA58"/>
+  <dimension ref="A1:DZ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:130" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:131" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:130" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:131" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:130" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:130" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2936,156 +2439,149 @@
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="115" t="s">
+      <c r="D4" s="6"/>
+      <c r="F4" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-    </row>
-    <row r="5" spans="1:131" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:131" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+    </row>
+    <row r="5" spans="1:130" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:130" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="L6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="O6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="P6" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:130" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-    </row>
-    <row r="8" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+    </row>
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="K8" s="56" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="J8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="K8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="L8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-    </row>
-    <row r="9" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="K9" s="56" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="J9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="K9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="L9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-    </row>
-    <row r="10" spans="1:131" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" spans="1:130" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10"/>
-      <c r="K10" s="56" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10"/>
+      <c r="J10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="K10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="L10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N10"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
+      <c r="M10"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -3199,1183 +2695,1001 @@
       <c r="DX10"/>
       <c r="DY10"/>
       <c r="DZ10"/>
-      <c r="EA10"/>
-    </row>
-    <row r="11" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="K11" s="56" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="J11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="K11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="L11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-    </row>
-    <row r="12" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+    </row>
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="56" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="J12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="K12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="L12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-    </row>
-    <row r="13" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+    </row>
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="56" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="J13" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="K13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="L13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-    </row>
-    <row r="14" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="K14" s="56" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="J14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="K14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="L14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-    </row>
-    <row r="15" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+    </row>
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="O15" s="56" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="N15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="O15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="P15" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="O16" s="56" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="N16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="O16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="58" t="s">
+      <c r="P16" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="O17" s="59" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="O17" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="P17" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103" t="s">
+    <row r="18" spans="1:24" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="F19" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="103"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="V19" s="33"/>
+      <c r="X19" s="34"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="G19" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="117"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="W19" s="38"/>
-      <c r="Y19" s="39"/>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101" t="s">
+      <c r="B20" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="65" t="s">
+      <c r="B21" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="80"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="80"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="80"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="64"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="80"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="80"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="80"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="80"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="80"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="80"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="80"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="80"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="80"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="80"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="80"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="80"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="80"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="80"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="80"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="80"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="80"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="80"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="80"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="80"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="80"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="80"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="80"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="80"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="80"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="80"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="80"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="81"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="81"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="81"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="84"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="84"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="F33" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="G33" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="88" t="s">
+      <c r="H33" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="J33" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="K33" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="88" t="s">
+      <c r="L33" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="87" t="s">
+      <c r="N33" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="86" t="s">
+      <c r="O33" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="88" t="s">
+      <c r="P33" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="70" t="s">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="90"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="90"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="90"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="80"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="80"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="90"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="70"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="90"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="90"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="90"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="80"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="80"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="80"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="77"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="90"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="90"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="90"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="80"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="80"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="80"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="90"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="90"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="90"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="80"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="80"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="80"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="77"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="90"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="90"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="90"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="80"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="80"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="80"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="77"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="90"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="90"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="90"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="80"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="80"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="80"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="77"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="90"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="90"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="90"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="80"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="80"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="80"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="77"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="90"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="90"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="90"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="80"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="80"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="80"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="77"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="90"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="90"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="90"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="80"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="80"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="80"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="77"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="90"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="90"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="90"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="80"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="91"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="91"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="91"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="81"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="81"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="81"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="75"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="84"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="84"/>
+    </row>
+    <row r="45" spans="1:16" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="L45" s="34"/>
+      <c r="N45" s="33"/>
+      <c r="P45" s="34"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="95" t="s">
+      <c r="F46" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="G46" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="97" t="s">
+      <c r="H46" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="95" t="s">
+      <c r="J46" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="96" t="s">
+      <c r="K46" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="97" t="s">
+      <c r="L46" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="N46" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="51" t="s">
+      <c r="O46" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="P46" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="70"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="90"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="90"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="100"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="77"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="90"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="90"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="90"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="77"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="90"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="90"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="90"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="77"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="90"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="90"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="90"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="77"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="90"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="90"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="90"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="77"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="90"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="90"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="90"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="77"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="90"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="90"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="90"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="77"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="90"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="90"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="90"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="77"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="90"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="90"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="90"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="80"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="91"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="91"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="91"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="85"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="94"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="94"/>
-    </row>
-    <row r="45" spans="1:17" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="K45" s="38"/>
-      <c r="M45" s="39"/>
-      <c r="O45" s="38"/>
-      <c r="Q45" s="39"/>
-    </row>
-    <row r="46" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="C47" s="108"/>
+      <c r="D47" s="37"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="50"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="50"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="42"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="B48" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="C48" s="98"/>
+      <c r="D48" s="39"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="53"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="44"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="58"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="58"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="B49" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="C49" s="98"/>
+      <c r="D49" s="39"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="53"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="53"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="44"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="58"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="44"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="58"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="58"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="44"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="58"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="58"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="58"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="44"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="58"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="58"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="44"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="58"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="58"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="58"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="44"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="58"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="58"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="58"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="44"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="58"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="58"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="58"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="44"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="58"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="58"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="58"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="46"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="61"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="61"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="39"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="53"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="53"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="53"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="39"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="39"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="53"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="53"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="39"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="53"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="53"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="39"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="53"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="53"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="53"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="39"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="53"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="53"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="53"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="39"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="53"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="53"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="53"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="41"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="56"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="56"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="56"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:R17" name="Contact Fields"/>
-    <protectedRange sqref="F47:J51 K47:R57 A52:J57" name="Questionnaire"/>
+    <protectedRange sqref="A7:Q17" name="Contact Fields"/>
+    <protectedRange sqref="E47:I51 J47:Q57 C52:I57 A52:B57" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A47:E51" name="Questionnaire_1"/>
-    <protectedRange sqref="N21:N32 J21:J32 R21:R32 A34:R44 A21:F32" name="Questionnaire_3_1"/>
+    <protectedRange sqref="C47:D51 A47:B51" name="Questionnaire_1"/>
+    <protectedRange sqref="M21:M32 I21:I32 Q21:Q32 A21:E32 A34:Q44" name="Questionnaire_3_1"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:P19"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:U10 A45:R45 Z45:AE45">
-    <cfRule type="expression" dxfId="49" priority="69">
+  <conditionalFormatting sqref="A17:I18 B8:I16 A45:Q45 Y45:AD45 N21:P32 J21:L32 F21:H32 J8:Y18">
+    <cfRule type="expression" dxfId="15" priority="75">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="76">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="70">
-      <formula>$D8="x"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47:P57 F47:H57 J47:L57">
+    <cfRule type="expression" dxfId="13" priority="95">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="96">
+      <formula>$C47="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:Q57">
-    <cfRule type="expression" dxfId="47" priority="61">
-      <formula>$C47="x"</formula>
+  <conditionalFormatting sqref="A8:A16 Y21:AF26 Z27:AF44 B26 A26:A28 C26:E28 A20:AF20 A19:E19 I19 M19 Q19:AF19 A21:E25 A29:E32 M21:M32 I21:I32 Q21:Q32 A33:Q44">
+    <cfRule type="expression" dxfId="11" priority="99">
+      <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="62">
-      <formula>$D47="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47:I57">
-    <cfRule type="expression" dxfId="45" priority="59">
-      <formula>$C47="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="60">
-      <formula>$D47="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="43" priority="57">
+    <cfRule type="expression" dxfId="10" priority="100">
       <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="58">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:M57">
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$C47="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$D47="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N18">
-    <cfRule type="expression" dxfId="39" priority="49">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="50">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:AG26 AA27:AG44 B26 A26:A28 C26:F28 A20:AG20 A19:F19 J19 N19 R19:AG19 A21:F25 A29:F32 N21:N32 J21:J32 R21:R32 A33:R44">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>$C19="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="9" priority="147">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="148">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$D26="x"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y41">
+    <cfRule type="expression" dxfId="7" priority="173">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="174">
+      <formula>$C45="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O22">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$C21="x"</formula>
+  <conditionalFormatting sqref="Y27 Y32:Y39">
+    <cfRule type="expression" dxfId="5" priority="175">
+      <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$D21="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="176">
+      <formula>$C30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21:Q22">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$C21="x"</formula>
+  <conditionalFormatting sqref="Y40 Y28:Y31">
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$D21="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="180">
+      <formula>$C32="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O32">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$C23="x"</formula>
+  <conditionalFormatting sqref="R19:X19">
+    <cfRule type="expression" dxfId="1" priority="185">
+      <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23:Q32">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K22">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$C21="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$D21="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:M22">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$C21="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$D21="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K32">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:M32">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C21="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D21="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I22">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C21="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D21="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G32">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I32">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z41">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="0" priority="186">
       <formula>$C45="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="42">
-      <formula>$D45="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27 Z32:Z39">
-    <cfRule type="expression" dxfId="7" priority="43">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z40 Z28:Z31">
-    <cfRule type="expression" dxfId="5" priority="45">
-      <formula>$C32="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
-      <formula>$D32="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:Z10">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$D10="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:Y19">
-    <cfRule type="expression" dxfId="1" priority="73">
-      <formula>$C45="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="74">
-      <formula>$D45="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17 C34:D44 C21:D32" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17 M12 L7:L17 P7:P17 H21:H32 H34:H44 H47:H57 L47:L57 P47:P57 P34:P44 P21:P32 L21:L31 L32 L34:L44" xr:uid="{D3BA4E53-0790-49A7-B436-E41A61FA68D3}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C17 C21:C32 C34:C44" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 N12 M7:M17 Q7:Q17 I21:I32 I34:I44 I47:I57 M47:M57 Q47:Q57 Q34:Q44 Q21:Q32 M21:M31 M32 M34:M44" xr:uid="{D3BA4E53-0790-49A7-B436-E41A61FA68D3}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD1D4F-741B-4B88-8FAD-63EDE947B206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E0DC3-7653-4772-BDBC-C54492F149D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="20340" yWindow="5085" windowWidth="14460" windowHeight="15600" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$C$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$17,Tabelle1!$P$47:$P$57,Tabelle1!$H$47:$H$57,Tabelle1!$H$7:$H$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$C$25</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$25,Tabelle1!$P$55:$P$65,Tabelle1!$H$55:$H$65,Tabelle1!$H$7:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +34,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{ECB61775-A574-4A52-8A63-1403940CEF23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>snapADDY</t>
   </si>
@@ -92,12 +116,6 @@
   </si>
   <si>
     <t>country</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>Pipeline-Phase</t>
   </si>
   <si>
     <t>amount</t>
@@ -255,12 +273,66 @@
   <si>
     <t xml:space="preserve">Group 2 </t>
   </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>MobilTelefon</t>
+  </si>
+  <si>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +415,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -376,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1340,11 +1419,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF87757"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1489,14 +1599,26 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1516,23 +1638,545 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1811,13 +2455,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1882,13 +2526,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1953,13 +2597,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2024,13 +2668,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2390,12 +3034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:DZ58"/>
+  <dimension ref="A1:DZ66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +3059,7 @@
   <sheetData>
     <row r="1" spans="1:130" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2431,32 +3075,32 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:130" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:130" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="F4" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
+      <c r="F4" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
+      <c r="N4" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
     </row>
     <row r="5" spans="1:130" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:130" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2512,75 +3156,76 @@
       <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="J8" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
+      <c r="A8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="112"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
     </row>
     <row r="9" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="J9" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
+      <c r="A9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="111"/>
     </row>
     <row r="10" spans="1:130" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="A10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="14"/>
+      <c r="E10"/>
+      <c r="F10" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="111" t="s">
+        <v>22</v>
+      </c>
       <c r="I10"/>
-      <c r="J10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>24</v>
-      </c>
+      <c r="J10" s="112"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
       <c r="M10"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="111"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
@@ -2698,30 +3343,30 @@
     </row>
     <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="J11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="112"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="111"/>
     </row>
     <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
@@ -2730,357 +3375,442 @@
       <c r="G12" s="52"/>
       <c r="H12" s="53"/>
       <c r="J12" s="51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" s="51"/>
       <c r="O12" s="52"/>
       <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13" s="51"/>
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="51" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N14" s="51"/>
       <c r="O14" s="52"/>
       <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="20"/>
+      <c r="A15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="N15" s="51" t="s">
+      <c r="F15" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
+    </row>
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="F16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="F18" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="F19" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="F20" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="F21" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="J22" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="N23" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="N24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="N16" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="52" t="s">
+      <c r="P24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="N17" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="N18" s="33"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93" t="s">
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="N25" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="34"/>
+      <c r="N26" s="33"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="F27" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="107"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="33"/>
+      <c r="T27" s="34"/>
+      <c r="V27" s="33"/>
+      <c r="X27" s="34"/>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="F19" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="103"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="V19" s="33"/>
-      <c r="X19" s="34"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B29" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="80"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="80"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="80"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="64"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="80"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="80"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="80"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="80"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="80"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="80"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="80"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="80"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="80"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="80"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="80"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="80"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="80"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="80"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="80"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="80"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="80"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="80"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="80"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="80"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="80"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
       <c r="F29" s="79"/>
       <c r="G29" s="65"/>
       <c r="H29" s="80"/>
@@ -3092,12 +3822,12 @@
       <c r="P29" s="80"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="64"/>
       <c r="F30" s="79"/>
       <c r="G30" s="65"/>
       <c r="H30" s="80"/>
@@ -3110,462 +3840,470 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
+        <v>51</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
       <c r="F31" s="79"/>
       <c r="G31" s="65"/>
-      <c r="H31" s="81"/>
+      <c r="H31" s="80"/>
       <c r="J31" s="79"/>
       <c r="K31" s="65"/>
-      <c r="L31" s="81"/>
+      <c r="L31" s="80"/>
       <c r="N31" s="79"/>
       <c r="O31" s="65"/>
-      <c r="P31" s="81"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="84"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="P31" s="80"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="66"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="80"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="80"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="80"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="80"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="80"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="80"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="80"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="66"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="65"/>
       <c r="L34" s="80"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="90"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="80"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
       <c r="D35" s="69"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="66"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="80"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="66"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="65"/>
       <c r="L35" s="80"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="66"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="65"/>
       <c r="P35" s="80"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="66"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="80"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="66"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="80"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="66"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="65"/>
       <c r="P36" s="80"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
       <c r="D37" s="69"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="66"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="80"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="66"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="80"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="66"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="65"/>
       <c r="P37" s="80"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
       <c r="D38" s="69"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="66"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="80"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="66"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="80"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="66"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="65"/>
       <c r="P38" s="80"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="80"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="80"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="80"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="80"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="80"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="80"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="80"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="80"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="80"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="81"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="81"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="81"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="84"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="84"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
+      <c r="B41" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="F42" s="88"/>
       <c r="G42" s="66"/>
       <c r="H42" s="80"/>
       <c r="J42" s="88"/>
       <c r="K42" s="66"/>
       <c r="L42" s="80"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="80"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="90"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="81"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="81"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="81"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="84"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="84"/>
-    </row>
-    <row r="45" spans="1:16" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="J45" s="33"/>
-      <c r="L45" s="34"/>
-      <c r="N45" s="33"/>
-      <c r="P45" s="34"/>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="80"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="80"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="80"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="80"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="80"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="80"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="80"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="80"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="80"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="80"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="80"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="80"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="80"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="80"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="80"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="80"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="80"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="80"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="80"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="80"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="80"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="80"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="80"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="80"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="81"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="81"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="81"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="75"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="84"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="84"/>
+    </row>
+    <row r="53" spans="1:16" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="J53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="N53" s="33"/>
+      <c r="P53" s="34"/>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B54" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35" t="s">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="45" t="s">
+      <c r="F54" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G54" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H54" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="42" t="s">
+      <c r="J54" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="43" t="s">
+      <c r="K54" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="44" t="s">
+      <c r="L54" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="42" t="s">
+      <c r="N54" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="43" t="s">
+      <c r="O54" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="44" t="s">
+      <c r="P54" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+    <row r="55" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="101"/>
+      <c r="D55" s="37"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="50"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B56" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="108"/>
-      <c r="D47" s="37"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="50"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="50"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="39"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="53"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="53"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="39"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="53"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="53"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="39"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="53"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="53"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="53"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="39"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="39"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="53"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="39"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="53"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="53"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="53"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="97"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="39"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="53"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="53"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="53"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="39"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="53"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="53"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="53"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="39"/>
       <c r="F56" s="51"/>
       <c r="G56" s="52"/>
@@ -3577,123 +4315,349 @@
       <c r="O56" s="52"/>
       <c r="P56" s="53"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="41"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="56"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="56"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="97"/>
+      <c r="D57" s="39"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="53"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="53"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="97"/>
+      <c r="D58" s="39"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="53"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="53"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="53"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="39"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="53"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="53"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="53"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="39"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="53"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="53"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="53"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="39"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="53"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="53"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="39"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="53"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="53"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="53"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="39"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="53"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="53"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="53"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="39"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="53"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="53"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="41"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="56"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="56"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="56"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:Q17" name="Contact Fields"/>
-    <protectedRange sqref="E47:I51 J47:Q57 C52:I57 A52:B57" name="Questionnaire"/>
+    <protectedRange sqref="Q7:Q25" name="Contact Fields"/>
+    <protectedRange sqref="E55:I59 J55:Q65 C60:I65 A60:B65" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="C47:D51 A47:B51" name="Questionnaire_1"/>
-    <protectedRange sqref="M21:M32 I21:I32 Q21:Q32 A21:E32 A34:Q44" name="Questionnaire_3_1"/>
+    <protectedRange sqref="C55:D59 A55:B59" name="Questionnaire_1"/>
+    <protectedRange sqref="M29:M40 I29:I40 Q29:Q40 A29:E40 A42:Q52" name="Questionnaire_3_1"/>
+    <protectedRange sqref="A7:P25" name="Contact Fields_2"/>
   </protectedRanges>
   <mergeCells count="17">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I18 B8:I16 A45:Q45 Y45:AD45 N21:P32 J21:L32 F21:H32 J8:Y18">
-    <cfRule type="expression" dxfId="15" priority="75">
+  <conditionalFormatting sqref="A53:Q53 Y53:AD53 N29:P40 J29:L40 F29:H40 A26:Y26 Q8:Y25">
+    <cfRule type="expression" dxfId="63" priority="123">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="76">
+    <cfRule type="expression" dxfId="62" priority="124">
       <formula>$C8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47:P57 F47:H57 J47:L57">
-    <cfRule type="expression" dxfId="13" priority="95">
+  <conditionalFormatting sqref="N55:P65 F55:H65 J55:L65">
+    <cfRule type="expression" dxfId="61" priority="143">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="96">
-      <formula>$C47="x"</formula>
+    <cfRule type="expression" dxfId="60" priority="144">
+      <formula>$C55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16 Y21:AF26 Z27:AF44 B26 A26:A28 C26:E28 A20:AF20 A19:E19 I19 M19 Q19:AF19 A21:E25 A29:E32 M21:M32 I21:I32 Q21:Q32 A33:Q44">
-    <cfRule type="expression" dxfId="11" priority="99">
+  <conditionalFormatting sqref="Y29:AF34 Z35:AF52 B34 A34:A36 C34:E36 A28:AF28 A27:E27 I27 M27 Q27:AF27 A29:E33 A37:E40 M29:M40 I29:I40 Q29:Q40 A41:Q52">
+    <cfRule type="expression" dxfId="59" priority="147">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="100">
+    <cfRule type="expression" dxfId="58" priority="148">
+      <formula>$C27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="57" priority="195">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="196">
+      <formula>$C34="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y49">
+    <cfRule type="expression" dxfId="55" priority="221">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="222">
+      <formula>$C53="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35 Y40:Y47">
+    <cfRule type="expression" dxfId="53" priority="223">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="224">
+      <formula>$C38="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y48 Y36:Y39">
+    <cfRule type="expression" dxfId="51" priority="227">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="228">
+      <formula>$C40="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:X27">
+    <cfRule type="expression" dxfId="49" priority="233">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="234">
+      <formula>$C53="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:I25 B12:P17 B22:I24 B18:E21 G18:I21 J19:P25 M18:P18">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$C12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A24">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>$C12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$C19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$C20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$C21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:L18">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$C8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="9" priority="147">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="148">
-      <formula>$C26="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$C9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y41">
-    <cfRule type="expression" dxfId="7" priority="173">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="174">
-      <formula>$C45="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$C10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y27 Y32:Y39">
-    <cfRule type="expression" dxfId="5" priority="175">
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="176">
-      <formula>$C30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y40 Y28:Y31">
-    <cfRule type="expression" dxfId="3" priority="179">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="180">
-      <formula>$C32="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19:X19">
-    <cfRule type="expression" dxfId="1" priority="185">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="186">
-      <formula>$C45="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C11="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17 M12 L7:L17 P7:P17 H21:H32 H34:H44 H47:H57 L47:L57 P47:P57 P34:P44 P21:P32 L21:L31 L32 L34:L44" xr:uid="{D3BA4E53-0790-49A7-B436-E41A61FA68D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P29:P40 L42:L52 L29:L40 H29:H40 H42:H52 H55:H65 L55:L65 P55:P65 P42:P52 H7:H25 P7:P25 L7:L25" xr:uid="{D3BA4E53-0790-49A7-B436-E41A61FA68D3}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C17 C21:C32 C34:C44" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42:C52 C29:C40 C7:C25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Hubspot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E4C20-6372-4373-9935-264954AA46AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C304F-FA98-4023-8251-DBE0BE44621D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1590,54 +1590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1649,6 +1601,54 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2889,8 +2889,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:EA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,27 +2940,27 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="1:131" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:131" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
@@ -3378,30 +3378,30 @@
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
       <c r="J19" s="63"/>
-      <c r="K19" s="105" t="s">
+      <c r="K19" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
       <c r="N19" s="63"/>
-      <c r="O19" s="108" t="s">
+      <c r="O19" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="110"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
       <c r="R19" s="64"/>
       <c r="S19" s="38"/>
       <c r="U19" s="39"/>
@@ -3409,7 +3409,7 @@
       <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="101" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="65" t="s">
@@ -3667,7 +3667,7 @@
       <c r="Q32" s="94"/>
     </row>
     <row r="33" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="102" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="66" t="s">
@@ -3911,7 +3911,7 @@
       <c r="Q45" s="39"/>
     </row>
     <row r="46" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="105" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="40" t="s">
@@ -3954,11 +3954,11 @@
       <c r="A47" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="42"/>
       <c r="G47" s="53"/>
       <c r="H47" s="54"/>
@@ -3974,11 +3974,11 @@
       <c r="A48" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
       <c r="E48" s="44"/>
       <c r="G48" s="56"/>
       <c r="H48" s="57"/>
@@ -3994,11 +3994,11 @@
       <c r="A49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
       <c r="E49" s="44"/>
       <c r="G49" s="56"/>
       <c r="H49" s="57"/>
@@ -4014,11 +4014,11 @@
       <c r="A50" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="104"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="44"/>
       <c r="G50" s="56"/>
       <c r="H50" s="57"/>
@@ -4032,9 +4032,9 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="108"/>
       <c r="E51" s="44"/>
       <c r="G51" s="56"/>
       <c r="H51" s="57"/>
@@ -4048,9 +4048,9 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="104"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="44"/>
       <c r="G52" s="56"/>
       <c r="H52" s="57"/>
@@ -4064,9 +4064,9 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="104"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="108"/>
       <c r="E53" s="44"/>
       <c r="G53" s="56"/>
       <c r="H53" s="57"/>
@@ -4080,9 +4080,9 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="108"/>
       <c r="E54" s="44"/>
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
@@ -4096,9 +4096,9 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="104"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
       <c r="E55" s="44"/>
       <c r="G55" s="56"/>
       <c r="H55" s="57"/>
@@ -4112,9 +4112,9 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="104"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
       <c r="E56" s="44"/>
       <c r="G56" s="56"/>
       <c r="H56" s="57"/>
@@ -4128,9 +4128,9 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="113"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="111"/>
       <c r="E57" s="46"/>
       <c r="G57" s="59"/>
       <c r="H57" s="60"/>
@@ -4152,14 +4152,6 @@
     <protectedRange sqref="N21:N32 J21:J32 R21:R32 A34:R44 A21:F32" name="Questionnaire_3_1"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B54:D54"/>
@@ -4169,6 +4161,14 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:U10 A45:R45 Z45:AE45">
     <cfRule type="expression" dxfId="49" priority="69">
@@ -4370,15 +4370,12 @@
       <formula>$D45="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q47:Q57 I47:I57 I7:I17 Q7:Q17 M47:M57 M7:M17 Q21:Q32 M21:M32 I21:I32" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17 C34:D44 C21:D32" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q34:Q44 I34:I44 M34:M44" xr:uid="{56F05B6E-DAF7-4382-8858-3C889111C006}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 M7:M17 Q8 Q7:Q17 Q21:Q32 M21:M32 I21:I32 I34:I44 M34:M44 Q34:Q44 Q47:Q57 M47:M57 I47:I57" xr:uid="{C3FD16AE-9D9F-4359-AB72-292FF7BEBB3D}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C304F-FA98-4023-8251-DBE0BE44621D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE42CB13-FF6A-4804-A3A5-AA8E90D95FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$47:$Q$57,Tabelle1!$I$47:$I$57,Tabelle1!$I$7:$I$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$25</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$25,Tabelle1!$Q$55:$Q$65,Tabelle1!$I$55:$I$65,Tabelle1!$I$7:$I$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>snapADDY</t>
   </si>
@@ -257,6 +257,63 @@
   </si>
   <si>
     <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>JobTitel</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Mobiltelefon</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -379,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1432,11 +1489,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF87757"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1601,6 +1689,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1653,7 +1750,29 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2306,13 +2425,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2377,13 +2496,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2448,13 +2567,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2519,13 +2638,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2887,10 +3006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:EA58"/>
+  <dimension ref="A1:EA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,7 +3028,7 @@
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,17 +3037,17 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:131" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:131" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2940,30 +3059,32 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="115" t="s">
+      <c r="K4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-    </row>
-    <row r="5" spans="1:131" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:131" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -2997,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -3013,597 +3134,681 @@
       <c r="P7" s="54"/>
       <c r="Q7" s="55"/>
     </row>
-    <row r="8" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="110"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="108"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="110"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="110"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="110"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="110"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="110"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="110"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="108"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="110"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="110"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="K8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-    </row>
-    <row r="9" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="K9" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-    </row>
-    <row r="10" spans="1:131" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10"/>
-      <c r="K10" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DI10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
-      <c r="DR10"/>
-      <c r="DS10"/>
-      <c r="DT10"/>
-      <c r="DU10"/>
-      <c r="DV10"/>
-      <c r="DW10"/>
-      <c r="DX10"/>
-      <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-    </row>
-    <row r="11" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="K11" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-    </row>
-    <row r="12" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-    </row>
-    <row r="13" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-    </row>
-    <row r="14" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="K14" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-    </row>
-    <row r="15" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="O15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="G16" s="56"/>
       <c r="H16" s="57"/>
       <c r="I16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="O16" s="56" t="s">
+      <c r="K16" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
+    </row>
+    <row r="17" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="G17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+    </row>
+    <row r="18" spans="1:131" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+    </row>
+    <row r="19" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="G19" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+    </row>
+    <row r="20" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
+    </row>
+    <row r="21" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="G21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+    </row>
+    <row r="22" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="K22" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
+    </row>
+    <row r="23" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+      <c r="O23" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="O24" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P24" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="58" t="s">
+      <c r="Q24" s="58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="25" spans="1:131" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="O17" s="59" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
+      <c r="O25" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="Q25" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103" t="s">
+    <row r="26" spans="1:131" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="K26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="O26" s="38"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:131" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="G19" s="116" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="G27" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="116" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="117"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="119" t="s">
+      <c r="L27" s="122"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="W19" s="38"/>
-      <c r="Y19" s="39"/>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101" t="s">
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="38"/>
+      <c r="U27" s="39"/>
+      <c r="W27" s="38"/>
+      <c r="Y27" s="39"/>
+    </row>
+    <row r="28" spans="1:131" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B28" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="65" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G28" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H28" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="88" t="s">
+      <c r="I28" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K28" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L28" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="88" t="s">
+      <c r="M28" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="87" t="s">
+      <c r="O28" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="86" t="s">
+      <c r="P28" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="88" t="s">
+      <c r="Q28" s="88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+    <row r="29" spans="1:131" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B29" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="70" t="s">
+      <c r="C29" s="69"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="90"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="90"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="90"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="70"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="90"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="90"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="90"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="77"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="90"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="90"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="90"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="90"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="90"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="90"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="77"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="90"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="90"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="90"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="77"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="90"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="90"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="90"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="77"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="90"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="90"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="90"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="77"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="90"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="90"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="90"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="77"/>
       <c r="G29" s="89"/>
       <c r="H29" s="71"/>
       <c r="I29" s="90"/>
@@ -3614,14 +3819,14 @@
       <c r="P29" s="71"/>
       <c r="Q29" s="90"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="77"/>
+    <row r="30" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="70"/>
       <c r="G30" s="89"/>
       <c r="H30" s="71"/>
       <c r="I30" s="90"/>
@@ -3632,489 +3837,497 @@
       <c r="P30" s="71"/>
       <c r="Q30" s="90"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="80"/>
+        <v>54</v>
+      </c>
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="77"/>
       <c r="G31" s="89"/>
       <c r="H31" s="71"/>
-      <c r="I31" s="91"/>
+      <c r="I31" s="90"/>
       <c r="K31" s="89"/>
       <c r="L31" s="71"/>
-      <c r="M31" s="91"/>
+      <c r="M31" s="90"/>
       <c r="O31" s="89"/>
       <c r="P31" s="71"/>
-      <c r="Q31" s="91"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="70"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="72"/>
+      <c r="Q31" s="90"/>
+    </row>
+    <row r="32" spans="1:131" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="90"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="90"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="90"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="77"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="90"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="90"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="90"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="77"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="71"/>
       <c r="I34" s="90"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="72"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="71"/>
       <c r="M34" s="90"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="100"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="90"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="76"/>
       <c r="D35" s="75"/>
       <c r="E35" s="77"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="72"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="71"/>
       <c r="I35" s="90"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="72"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="71"/>
       <c r="M35" s="90"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="72"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="90"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="76"/>
       <c r="D36" s="75"/>
       <c r="E36" s="77"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="72"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="71"/>
       <c r="I36" s="90"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="72"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="71"/>
       <c r="M36" s="90"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="72"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="71"/>
       <c r="Q36" s="90"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="76"/>
       <c r="D37" s="75"/>
       <c r="E37" s="77"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="72"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="90"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="72"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="71"/>
       <c r="M37" s="90"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="72"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="71"/>
       <c r="Q37" s="90"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="76"/>
       <c r="D38" s="75"/>
       <c r="E38" s="77"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="72"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="90"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="72"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="90"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="72"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="71"/>
       <c r="Q38" s="90"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="77"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="90"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="90"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="90"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="77"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="90"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="90"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="90"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="77"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="90"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="90"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="90"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="77"/>
+        <v>62</v>
+      </c>
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="80"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="91"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="91"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="91"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="83"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="94"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="94"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="94"/>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="70"/>
       <c r="G42" s="98"/>
       <c r="H42" s="72"/>
       <c r="I42" s="90"/>
       <c r="K42" s="98"/>
       <c r="L42" s="72"/>
       <c r="M42" s="90"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="90"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="100"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="77"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="90"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="90"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="90"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="90"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="90"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="90"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="77"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="90"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="90"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="90"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="77"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="90"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="90"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="90"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="77"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="90"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="90"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="90"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="77"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="90"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="90"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="90"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="77"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="90"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="90"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="90"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="77"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="90"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="90"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="90"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="80"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="91"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="91"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="91"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="85"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="94"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="94"/>
-    </row>
-    <row r="45" spans="1:17" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="K45" s="38"/>
-      <c r="M45" s="39"/>
-      <c r="O45" s="38"/>
-      <c r="Q45" s="39"/>
-    </row>
-    <row r="46" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105" t="s">
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="80"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="91"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="91"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="91"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="85"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="83"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="94"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="94"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="94"/>
+    </row>
+    <row r="53" spans="1:17" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="K53" s="38"/>
+      <c r="M53" s="39"/>
+      <c r="O53" s="38"/>
+      <c r="Q53" s="39"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B54" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G54" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="H54" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="52" t="s">
+      <c r="I54" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="47" t="s">
+      <c r="K54" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="48" t="s">
+      <c r="L54" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="49" t="s">
+      <c r="M54" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="47" t="s">
+      <c r="O54" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="48" t="s">
+      <c r="P54" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="49" t="s">
+      <c r="Q54" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+    <row r="55" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B55" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="42"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="C55" s="118"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="42"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="55"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="55"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="55"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="B56" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="44"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="58"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="58"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="44"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="58"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="44"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="58"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="58"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="44"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="58"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="58"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="58"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="44"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="58"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="58"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="44"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="58"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="58"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="58"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="44"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="58"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="58"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="58"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="44"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="58"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="58"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="58"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="108"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="113"/>
       <c r="E56" s="44"/>
       <c r="G56" s="56"/>
       <c r="H56" s="57"/>
@@ -4126,255 +4339,402 @@
       <c r="P56" s="57"/>
       <c r="Q56" s="58"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="46"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="61"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="61"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="112"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="44"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="58"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="58"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="58"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="112"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="44"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="58"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="58"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="58"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="44"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="58"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="58"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="44"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="58"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="58"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="58"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="44"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="58"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="58"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="44"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="58"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="58"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="58"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="44"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="58"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="58"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="44"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="58"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="58"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="58"/>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="46"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="61"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="61"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="61"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:R17" name="Contact Fields"/>
-    <protectedRange sqref="F47:J51 K47:R57 A52:J57" name="Questionnaire"/>
+    <protectedRange sqref="A7:F7 A16:F25 B8:F15 J7:R7 J16:R25 J8:R11 J13:R15 J12 N12:R12" name="Contact Fields"/>
+    <protectedRange sqref="F55:J59 K55:R65 A60:J65" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A47:E51" name="Questionnaire_1"/>
-    <protectedRange sqref="N21:N32 J21:J32 R21:R32 A34:R44 A21:F32" name="Questionnaire_3_1"/>
+    <protectedRange sqref="A55:E59" name="Questionnaire_1"/>
+    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_3_1"/>
+    <protectedRange sqref="A8:A15" name="Contact Fields_1"/>
+    <protectedRange sqref="G7:I25" name="Contact Fields_2"/>
+    <protectedRange sqref="K12:M12" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="17">
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:U10 A45:R45 Z45:AE45">
-    <cfRule type="expression" dxfId="49" priority="69">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="70">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="A26:J26 B16:F24 O16:Z17 O19:Z26 O18:U18 A53:R53 Z53:AE53 A25:F25 J16:J25">
+    <cfRule type="expression" dxfId="51" priority="71">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="72">
+      <formula>$D16="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:Q57">
+  <conditionalFormatting sqref="O55:Q65">
+    <cfRule type="expression" dxfId="49" priority="63">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="64">
+      <formula>$D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:I65">
     <cfRule type="expression" dxfId="47" priority="61">
-      <formula>$C47="x"</formula>
+      <formula>$C55="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="62">
-      <formula>$D47="x"</formula>
+      <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:I57">
+  <conditionalFormatting sqref="A16:A24">
     <cfRule type="expression" dxfId="45" priority="59">
-      <formula>$C47="x"</formula>
+      <formula>$C16="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="60">
-      <formula>$D47="x"</formula>
+      <formula>$D16="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="43" priority="57">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="58">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="K55:M65">
+    <cfRule type="expression" dxfId="43" priority="49">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="50">
+      <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:M57">
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$C47="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$D47="x"</formula>
+  <conditionalFormatting sqref="K16:N26">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="52">
+      <formula>$D16="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N18">
-    <cfRule type="expression" dxfId="39" priority="49">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="50">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="Z29:AG34 AA35:AG52 B34 A34:A36 C34:F36 A28:AG28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A41:R52">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:AG26 AA27:AG44 B26 A26:A28 C26:F28 A20:AG20 A19:F19 J19 N19 R19:AG19 A21:F25 A29:F32 N21:N32 J21:J32 R21:R32 A33:R44">
+  <conditionalFormatting sqref="B35:B36">
     <cfRule type="expression" dxfId="37" priority="37">
-      <formula>$C19="x"</formula>
+      <formula>$C34="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$D19="x"</formula>
+      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
+  <conditionalFormatting sqref="O29:O30">
     <cfRule type="expression" dxfId="35" priority="35">
-      <formula>$C26="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$D26="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O22">
+  <conditionalFormatting sqref="P29:Q30">
     <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$C21="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$D21="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21:Q22">
+  <conditionalFormatting sqref="O31:O40">
     <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$C21="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$D21="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O32">
+  <conditionalFormatting sqref="P31:Q40">
     <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$C23="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$D23="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23:Q32">
+  <conditionalFormatting sqref="K29:K30">
     <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$C23="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$D23="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K22">
+  <conditionalFormatting sqref="L29:M30">
     <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$C21="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$D21="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:M22">
+  <conditionalFormatting sqref="K31:K40">
     <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$C21="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$D21="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K32">
+  <conditionalFormatting sqref="L31:M40">
     <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C23="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D23="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:M32">
+  <conditionalFormatting sqref="G29:G30">
     <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C23="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D23="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
+  <conditionalFormatting sqref="H29:I30">
     <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C21="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D21="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I22">
+  <conditionalFormatting sqref="G31:G40">
     <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C21="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D21="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G32">
+  <conditionalFormatting sqref="H31:I40">
     <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C23="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D23="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I32">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D23="x"</formula>
+  <conditionalFormatting sqref="Z49">
+    <cfRule type="expression" dxfId="11" priority="43">
+      <formula>$C53="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="44">
+      <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z41">
-    <cfRule type="expression" dxfId="9" priority="41">
-      <formula>$C45="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="42">
-      <formula>$D45="x"</formula>
+  <conditionalFormatting sqref="Z35 Z40:Z47">
+    <cfRule type="expression" dxfId="9" priority="45">
+      <formula>$C38="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="46">
+      <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z27 Z32:Z39">
-    <cfRule type="expression" dxfId="7" priority="43">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
-      <formula>$D30="x"</formula>
+  <conditionalFormatting sqref="Z48 Z36:Z39">
+    <cfRule type="expression" dxfId="7" priority="47">
+      <formula>$C40="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="48">
+      <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z40 Z28:Z31">
-    <cfRule type="expression" dxfId="5" priority="45">
-      <formula>$C32="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
-      <formula>$D32="x"</formula>
+  <conditionalFormatting sqref="V18:Z18">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D18="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:Z10">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$D10="x"</formula>
+  <conditionalFormatting sqref="S27:Y27">
+    <cfRule type="expression" dxfId="3" priority="75">
+      <formula>$C53="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="76">
+      <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19:Y19">
-    <cfRule type="expression" dxfId="1" priority="73">
-      <formula>$C45="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="74">
-      <formula>$D45="x"</formula>
+  <conditionalFormatting sqref="G16:I16 G22:I25 G17:H21">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D16="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17 C34:D44 C21:D32" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 M7:M17 Q8 Q7:Q17 Q21:Q32 M21:M32 I21:I32 I34:I44 M34:M44 Q34:Q44 Q47:Q57 M47:M57 I47:I57" xr:uid="{C3FD16AE-9D9F-4359-AB72-292FF7BEBB3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 I7:I25 Q7:Q25 Q29:Q40 M29:M40 I29:I40 I42:I52 M42:M52 Q42:Q52 Q55:Q65 M55:M65 M7:M25" xr:uid="{C3FD16AE-9D9F-4359-AB72-292FF7BEBB3D}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57565F8-A20E-49F8-A951-D7ABCAE602C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4780A2-D1AC-4B07-A4E8-D8E3DD5BE96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1346,6 +1346,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1354,6 +1357,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1372,27 +1393,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2392,8 +2392,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:EA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,23 +2443,23 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3223,21 +3223,21 @@
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
-      <c r="K32" s="80" t="s">
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+      <c r="K32" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="82"/>
-      <c r="O32" s="83" t="s">
+      <c r="L32" s="75"/>
+      <c r="M32" s="76"/>
+      <c r="O32" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="85"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="79"/>
       <c r="R32" s="45"/>
     </row>
     <row r="33" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3786,9 +3786,9 @@
       <c r="A60" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="27"/>
       <c r="G60" s="38"/>
       <c r="H60" s="39"/>
@@ -3804,11 +3804,11 @@
       <c r="A61" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="29"/>
       <c r="G61" s="38"/>
       <c r="H61" s="39"/>
@@ -3824,11 +3824,11 @@
       <c r="A62" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="29"/>
       <c r="G62" s="38"/>
       <c r="H62" s="39"/>
@@ -3844,11 +3844,11 @@
       <c r="A63" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="29"/>
       <c r="G63" s="38"/>
       <c r="H63" s="39"/>
@@ -3864,11 +3864,11 @@
       <c r="A64" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="71"/>
-      <c r="D64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="29"/>
       <c r="G64" s="38"/>
       <c r="H64" s="39"/>
@@ -3882,9 +3882,9 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="73"/>
       <c r="E65" s="29"/>
       <c r="G65" s="38"/>
       <c r="H65" s="39"/>
@@ -3898,9 +3898,9 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
       <c r="E66" s="29"/>
       <c r="G66" s="38"/>
       <c r="H66" s="39"/>
@@ -3914,9 +3914,9 @@
     </row>
     <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="75"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="31"/>
       <c r="G67" s="41"/>
       <c r="H67" s="42"/>
@@ -3941,6 +3941,11 @@
     <protectedRange sqref="K14:M14" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
@@ -3950,11 +3955,6 @@
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="O31:R31 A58:E58 AA58:AE58 A30:E31 G58:I58 G31:I31 K58:M58 O58:R58 B7:E29 O30:Q30 G60:I66 K60:M66 O60:Q66">
     <cfRule type="expression" dxfId="27" priority="89">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Hubspot_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4780A2-D1AC-4B07-A4E8-D8E3DD5BE96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA9F4D-4264-40A5-A00C-110C71117C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1346,9 +1346,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1357,6 +1354,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1375,24 +1393,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2392,8 +2392,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:EA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q60" activeCellId="11" sqref="I7:I30 M7:M30 Q7:Q30 I34:I45 M34:M45 Q34:Q45 Q47:Q57 M47:M57 I47:I57 I60:I67 M60:M67 Q60:Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,23 +2443,23 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3223,21 +3223,21 @@
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
-      <c r="G32" s="74" t="s">
+      <c r="G32" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
-      <c r="K32" s="74" t="s">
+      <c r="H32" s="81"/>
+      <c r="I32" s="82"/>
+      <c r="K32" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="76"/>
-      <c r="O32" s="77" t="s">
+      <c r="L32" s="81"/>
+      <c r="M32" s="82"/>
+      <c r="O32" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="79"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="85"/>
       <c r="R32" s="45"/>
     </row>
     <row r="33" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3786,9 +3786,9 @@
       <c r="A60" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="27"/>
       <c r="G60" s="38"/>
       <c r="H60" s="39"/>
@@ -3804,11 +3804,11 @@
       <c r="A61" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="72"/>
       <c r="E61" s="29"/>
       <c r="G61" s="38"/>
       <c r="H61" s="39"/>
@@ -3824,11 +3824,11 @@
       <c r="A62" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="29"/>
       <c r="G62" s="38"/>
       <c r="H62" s="39"/>
@@ -3844,11 +3844,11 @@
       <c r="A63" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="72"/>
       <c r="E63" s="29"/>
       <c r="G63" s="38"/>
       <c r="H63" s="39"/>
@@ -3864,11 +3864,11 @@
       <c r="A64" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="72"/>
       <c r="E64" s="29"/>
       <c r="G64" s="38"/>
       <c r="H64" s="39"/>
@@ -3882,9 +3882,9 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="73"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="29"/>
       <c r="G65" s="38"/>
       <c r="H65" s="39"/>
@@ -3898,9 +3898,9 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
       <c r="E66" s="29"/>
       <c r="G66" s="38"/>
       <c r="H66" s="39"/>
@@ -3914,9 +3914,9 @@
     </row>
     <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="82"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="75"/>
       <c r="E67" s="31"/>
       <c r="G67" s="41"/>
       <c r="H67" s="42"/>
@@ -3941,11 +3941,6 @@
     <protectedRange sqref="K14:M14" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
@@ -3955,6 +3950,11 @@
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="O31:R31 A58:E58 AA58:AE58 A30:E31 G58:I58 G31:I31 K58:M58 O58:R58 B7:E29 O30:Q30 G60:I66 K60:M66 O60:Q66">
     <cfRule type="expression" dxfId="27" priority="89">
@@ -4072,8 +4072,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D30 C47:D57 C34:D45" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I30 Q7:Q30 Q34:Q45 M34:M45 I34:I45 M47:M57 Q47:Q57 M7:M30 I47:I57 I60:I67 M60:M67 Q60:Q67" xr:uid="{C3FD16AE-9D9F-4359-AB72-292FF7BEBB3D}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I30 M7:M30 Q7:Q30 I34:I45 M34:M45 Q34:Q45 Q47:Q57 M47:M57 I47:I57 I60:I67 M60:M67 Q60:Q67" xr:uid="{AC80F5E4-B707-4EAC-AA16-C243A960119A}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
